--- a/insights/summary.xlsx
+++ b/insights/summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>1. As it can be seen, the most frequent type of package is 0.5kg, which is logical as they are clothes</t>
   </si>
@@ -40,7 +40,7 @@
     <t>10kg</t>
   </si>
   <si>
-    <t>2. Confusing and inconsistent package types / descriptions, including dimensions. But no dimensions taken into account in price-list. For analytical purposes and comparison of the prices the assumption made that 0-2 kg = 2kg, max. 2kg = 2kg etc.</t>
+    <t>2. Confusing and inconsistent package types / descriptions, including dimensions. Might be a good idea to simplify them or fully synchronize with post services/delivery providers.</t>
   </si>
   <si>
     <t>actual_package_size</t>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2 kg</t>
+  </si>
+  <si>
+    <t>But no dimensions taken into account in price-list. For analytical purposes and comparison of the prices the assumption made that 0-2 kg = 2kg, max. 2kg = 2kg etc.</t>
   </si>
   <si>
     <t>Max. 2 kg, 38 × 26,5 × 3,2 cm</t>
@@ -169,7 +172,7 @@
     <numFmt numFmtId="59" formatCode="#,##0.0#"/>
     <numFmt numFmtId="60" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -181,18 +184,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -205,31 +219,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -250,31 +249,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -286,10 +285,25 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -299,65 +313,68 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -377,6 +394,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff515151"/>
     </indexedColors>
@@ -395,10 +413,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -575,11 +593,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -588,7 +609,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -603,12 +624,12 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -865,10 +886,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1159,7 +1180,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1443,9 +1464,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.9531" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3516" style="1" customWidth="1"/>
     <col min="4" max="51" width="16.3516" style="1" customWidth="1"/>
     <col min="52" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -2077,7 +2098,9 @@
       <c r="C12" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" t="s" s="11">
+        <v>13</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2127,8 +2150,8 @@
       <c r="AY12" s="4"/>
     </row>
     <row r="13" ht="20.7" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>13</v>
+      <c r="A13" t="s" s="12">
+        <v>14</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" t="s" s="6">
@@ -2238,7 +2261,7 @@
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2293,13 +2316,13 @@
     </row>
     <row r="16" ht="20.7" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
@@ -2352,15 +2375,15 @@
     </row>
     <row r="17" ht="20.7" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C17" s="12">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13">
         <v>1650965.36</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <f>C17/$C$29</f>
         <v>0.976892302280985</v>
       </c>
@@ -2414,15 +2437,15 @@
     </row>
     <row r="18" ht="20.7" customHeight="1">
       <c r="A18" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B18" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>17312.27</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="14">
         <f>C18/$C$29</f>
         <v>0.0102438389731024</v>
       </c>
@@ -2476,15 +2499,15 @@
     </row>
     <row r="19" ht="20.7" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="C19" s="12">
+        <v>20</v>
+      </c>
+      <c r="C19" s="13">
         <v>14214.41</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="14">
         <f>C19/$C$29</f>
         <v>0.00841080500348345</v>
       </c>
@@ -2538,15 +2561,15 @@
     </row>
     <row r="20" ht="20.7" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C20" s="12">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13">
         <v>4245.76</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="14">
         <f>C20/$C$29</f>
         <v>0.00251225759293491</v>
       </c>
@@ -2600,15 +2623,15 @@
     </row>
     <row r="21" ht="20.7" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="12">
+        <v>21</v>
+      </c>
+      <c r="C21" s="13">
         <v>2054.13</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="14">
         <f>C21/$C$29</f>
         <v>0.00121544875107764</v>
       </c>
@@ -2662,15 +2685,15 @@
     </row>
     <row r="22" ht="20.7" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="C22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13">
         <v>765.66</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="14">
         <f>C22/$C$29</f>
         <v>0.000453048488046084</v>
       </c>
@@ -2724,15 +2747,15 @@
     </row>
     <row r="23" ht="20.7" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="C23" s="12">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13">
         <v>162.88</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="14">
         <f>C23/$C$29</f>
         <v>9.63776842631798e-05</v>
       </c>
@@ -2786,15 +2809,15 @@
     </row>
     <row r="24" ht="20.7" customHeight="1">
       <c r="A24" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="B24" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <v>111.07</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="14">
         <f>C24/$C$29</f>
         <v>6.57212020574127e-05</v>
       </c>
@@ -2848,15 +2871,15 @@
     </row>
     <row r="25" ht="20.7" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="C25" s="12">
+        <v>21</v>
+      </c>
+      <c r="C25" s="13">
         <v>106.78</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="14">
         <f>C25/$C$29</f>
         <v>6.318276722508801e-05</v>
       </c>
@@ -2910,15 +2933,15 @@
     </row>
     <row r="26" ht="20.7" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C26" s="12">
+        <v>19</v>
+      </c>
+      <c r="C26" s="13">
         <v>50.62</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="14">
         <f>C26/$C$29</f>
         <v>2.99523476019288e-05</v>
       </c>
@@ -2972,15 +2995,15 @@
     </row>
     <row r="27" ht="20.7" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="C27" s="12">
+        <v>22</v>
+      </c>
+      <c r="C27" s="13">
         <v>24.61</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="14">
         <f>C27/$C$29</f>
         <v>1.45619769751771e-05</v>
       </c>
@@ -3034,15 +3057,15 @@
     </row>
     <row r="28" ht="20.7" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="C28" s="12">
+        <v>22</v>
+      </c>
+      <c r="C28" s="13">
         <v>4.23</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="14">
         <f>C28/$C$29</f>
         <v>2.50293224725719e-06</v>
       </c>
@@ -3097,12 +3120,12 @@
     <row r="29" ht="20.35" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="14">
+      <c r="C29" s="15">
         <f>SUM(C17:C28)</f>
         <v>1690017.78</v>
       </c>
-      <c r="D29" t="s" s="15">
-        <v>22</v>
+      <c r="D29" t="s" s="16">
+        <v>23</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3206,8 +3229,8 @@
       <c r="AY30" s="4"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="16">
-        <v>23</v>
+      <c r="A31" t="s" s="17">
+        <v>24</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3261,11 +3284,11 @@
       <c r="AY31" s="4"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s" s="17">
+      <c r="A32" t="s" s="18">
         <v>25</v>
+      </c>
+      <c r="B32" t="s" s="18">
+        <v>26</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3318,10 +3341,10 @@
       <c r="AY32" s="4"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="18">
+      <c r="A33" s="19">
         <v>24037150</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="20">
         <v>3.23</v>
       </c>
       <c r="C33" s="4"/>
@@ -3375,10 +3398,10 @@
       <c r="AY33" s="4"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="19">
         <v>30713392</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="20">
         <v>3.65</v>
       </c>
       <c r="C34" s="4"/>
@@ -3432,10 +3455,10 @@
       <c r="AY34" s="4"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>30290883</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="20">
         <v>2.9</v>
       </c>
       <c r="C35" s="4"/>
@@ -3542,8 +3565,8 @@
       <c r="AY36" s="4"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="16">
-        <v>26</v>
+      <c r="A37" t="s" s="17">
+        <v>27</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3597,32 +3620,32 @@
       <c r="AY37" s="4"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="17">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s" s="17">
+      <c r="A38" t="s" s="18">
         <v>28</v>
       </c>
-      <c r="C38" t="s" s="17">
+      <c r="B38" t="s" s="18">
         <v>29</v>
       </c>
-      <c r="D38" t="s" s="17">
+      <c r="C38" t="s" s="18">
         <v>30</v>
       </c>
-      <c r="E38" t="s" s="17">
+      <c r="D38" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="F38" t="s" s="17">
+      <c r="E38" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="G38" t="s" s="17">
+      <c r="F38" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="H38" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s" s="17">
+      <c r="G38" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s" s="18">
         <v>16</v>
+      </c>
+      <c r="I38" t="s" s="18">
+        <v>17</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3668,32 +3691,32 @@
       <c r="AY38" s="4"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>227660840</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="20">
         <v>12</v>
       </c>
-      <c r="C39" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s" s="17">
+      <c r="C39" t="s" s="18">
         <v>35</v>
       </c>
-      <c r="E39" t="s" s="17">
+      <c r="D39" t="s" s="18">
         <v>36</v>
       </c>
-      <c r="F39" t="s" s="17">
+      <c r="E39" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="G39" t="s" s="17">
+      <c r="G39" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="H39" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="I39" t="s" s="17">
-        <v>18</v>
+      <c r="H39" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3739,32 +3762,32 @@
       <c r="AY39" s="4"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="18">
+      <c r="A40" s="19">
         <v>189427348</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="20">
         <v>12</v>
       </c>
-      <c r="C40" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s" s="17">
+      <c r="C40" t="s" s="18">
         <v>35</v>
       </c>
-      <c r="E40" t="s" s="17">
+      <c r="D40" t="s" s="18">
         <v>36</v>
       </c>
-      <c r="F40" t="s" s="17">
+      <c r="E40" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="G40" t="s" s="17">
+      <c r="G40" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="H40" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s" s="17">
-        <v>18</v>
+      <c r="H40" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3810,32 +3833,32 @@
       <c r="AY40" s="4"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="18">
+      <c r="A41" s="19">
         <v>149131481</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="20">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E41" t="s" s="17">
+      <c r="C41" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s" s="18">
         <v>38</v>
       </c>
-      <c r="F41" t="s" s="17">
+      <c r="E41" t="s" s="18">
         <v>39</v>
       </c>
-      <c r="G41" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H41" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="I41" t="s" s="17">
-        <v>18</v>
+      <c r="F41" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3881,32 +3904,32 @@
       <c r="AY41" s="4"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="18">
+      <c r="A42" s="19">
         <v>219184182</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="20">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E42" t="s" s="17">
+      <c r="C42" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s" s="18">
         <v>38</v>
       </c>
-      <c r="F42" t="s" s="17">
+      <c r="E42" t="s" s="18">
         <v>39</v>
       </c>
-      <c r="G42" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s" s="17">
+      <c r="F42" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="18">
         <v>19</v>
+      </c>
+      <c r="I42" t="s" s="18">
+        <v>20</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3952,32 +3975,32 @@
       <c r="AY42" s="4"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>241873815</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="20">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="17">
+      <c r="C43" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s" s="18">
         <v>40</v>
       </c>
-      <c r="D43" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E43" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H43" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="I43" t="s" s="17">
-        <v>18</v>
+      <c r="G43" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -4023,32 +4046,32 @@
       <c r="AY43" s="4"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="18">
+      <c r="A44" s="19">
         <v>241996856</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="20">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="17">
+      <c r="C44" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s" s="18">
         <v>40</v>
       </c>
-      <c r="D44" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E44" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="F44" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s" s="17">
-        <v>18</v>
+      <c r="G44" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -4094,32 +4117,32 @@
       <c r="AY44" s="4"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="18">
+      <c r="A45" s="19">
         <v>294308576</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="20">
         <v>11</v>
       </c>
-      <c r="C45" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s" s="17">
+      <c r="C45" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s" s="18">
         <v>43</v>
       </c>
-      <c r="F45" t="s" s="17">
+      <c r="E45" t="s" s="18">
         <v>44</v>
       </c>
-      <c r="G45" t="s" s="17">
-        <v>44</v>
-      </c>
-      <c r="H45" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="I45" t="s" s="17">
-        <v>18</v>
+      <c r="F45" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4165,32 +4188,32 @@
       <c r="AY45" s="4"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="18">
+      <c r="A46" s="19">
         <v>233659766</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="20">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="D46" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E46" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="F46" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="G46" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="I46" t="s" s="17">
-        <v>18</v>
+      <c r="C46" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -4289,8 +4312,8 @@
       <c r="AY47" s="4"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="16">
-        <v>46</v>
+      <c r="A48" t="s" s="17">
+        <v>47</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4344,35 +4367,35 @@
       <c r="AY48" s="4"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="17">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s" s="17">
+      <c r="A49" t="s" s="18">
         <v>28</v>
       </c>
-      <c r="C49" t="s" s="17">
-        <v>47</v>
-      </c>
-      <c r="D49" t="s" s="17">
+      <c r="B49" t="s" s="18">
         <v>29</v>
       </c>
-      <c r="E49" t="s" s="17">
+      <c r="C49" t="s" s="18">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s" s="18">
         <v>30</v>
       </c>
-      <c r="F49" t="s" s="17">
+      <c r="E49" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="G49" t="s" s="17">
+      <c r="F49" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="H49" t="s" s="17">
+      <c r="G49" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="I49" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="J49" t="s" s="17">
+      <c r="H49" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s" s="18">
         <v>16</v>
+      </c>
+      <c r="J49" t="s" s="18">
+        <v>17</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -4417,35 +4440,35 @@
       <c r="AY49" s="4"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="18">
+      <c r="A50" s="19">
         <v>187670497</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="20">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="17">
-        <v>48</v>
-      </c>
-      <c r="D50" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E50" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="G50" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="I50" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="J50" t="s" s="17">
-        <v>18</v>
+      <c r="C50" t="s" s="18">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -4490,35 +4513,35 @@
       <c r="AY50" s="4"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="18">
+      <c r="A51" s="19">
         <v>295187909</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="20">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="17">
-        <v>48</v>
-      </c>
-      <c r="D51" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E51" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="G51" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="I51" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="J51" t="s" s="17">
-        <v>18</v>
+      <c r="C51" t="s" s="18">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="E51" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -4563,35 +4586,35 @@
       <c r="AY51" s="4"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="18">
+      <c r="A52" s="19">
         <v>151530440</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="20">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="17">
-        <v>48</v>
-      </c>
-      <c r="D52" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="E52" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="G52" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="I52" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s" s="17">
-        <v>18</v>
+      <c r="C52" t="s" s="18">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="E52" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
